--- a/data/2011-2012/chart2_2011.xlsx
+++ b/data/2011-2012/chart2_2011.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazeldespain/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazeldespain/Desktop/TouristData/data/2011-2012/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951772C-55A9-C74E-8CBD-AB238FD37D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73F81BB-3658-4140-B291-7FA109DEFB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27360" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14220" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
@@ -92,13 +89,16 @@
     <t>Barcelona</t>
   </si>
   <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>dollars_billion</t>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>City Name</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Overnight International Visitor Spend (US$ bn)</t>
   </si>
 </sst>
 </file>
@@ -459,23 +459,28 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -483,10 +488,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>25.6</v>
+      </c>
+      <c r="D2">
+        <v>2010</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -494,13 +502,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>20.3</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
+      <c r="D3">
+        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -508,10 +516,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>14.6</v>
+      </c>
+      <c r="D4">
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -519,10 +530,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>14.4</v>
+      </c>
+      <c r="D5">
+        <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -530,10 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>14</v>
+      </c>
+      <c r="D6">
+        <v>2010</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -541,10 +558,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>13.8</v>
+      </c>
+      <c r="D7">
+        <v>2010</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -552,10 +572,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>12.5</v>
+      </c>
+      <c r="D8">
+        <v>2010</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -563,10 +586,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>11.8</v>
+      </c>
+      <c r="D9">
+        <v>2010</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -574,10 +600,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>10.8</v>
+      </c>
+      <c r="D10">
+        <v>2010</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -585,10 +614,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>10.4</v>
+      </c>
+      <c r="D11">
+        <v>2010</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -596,10 +628,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <v>10.199999999999999</v>
+      </c>
+      <c r="D12">
+        <v>2010</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -607,10 +642,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>10.199999999999999</v>
+      </c>
+      <c r="D13">
+        <v>2010</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,10 +656,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>9.9</v>
+      </c>
+      <c r="D14">
+        <v>2010</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -629,10 +670,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
         <v>8.9</v>
+      </c>
+      <c r="D15">
+        <v>2010</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -640,65 +684,83 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>7.5</v>
+      </c>
+      <c r="D21">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
